--- a/rhla_analysis/rhla1_6_uniform_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k0.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005400103136196781</v>
+        <v>0.00548512441723561</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04842999114079853</v>
+        <v>0.04841416267920626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1214833759590793</v>
+        <v>0.07841140529531568</v>
       </c>
       <c r="D2" t="n">
-        <v>8.968345588841311</v>
+        <v>8.826447496264088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00650884333460025</v>
+        <v>0.006443831901713545</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05066544977966651</v>
+        <v>0.05041885114630709</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1184995737425405</v>
+        <v>0.0756958587915818</v>
       </c>
       <c r="D3" t="n">
-        <v>7.784094219987582</v>
+        <v>7.824358536246065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003121558638302209</v>
+        <v>0.003119504556738514</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0438146929578339</v>
+        <v>0.04409311639183262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1095481670929241</v>
+        <v>0.06381534283774609</v>
       </c>
       <c r="D4" t="n">
-        <v>14.03615886634901</v>
+        <v>14.13465362523227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.00347458670330425</v>
+        <v>0.003496801779185846</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03806053802054557</v>
+        <v>0.03806577340073061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1457800511508952</v>
+        <v>0.09063136456211812</v>
       </c>
       <c r="D5" t="n">
-        <v>10.95397561510003</v>
+        <v>10.88588253052004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.006376872952010432</v>
+        <v>0.006436802728812224</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03055634266867932</v>
+        <v>0.03068039318125948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1172208013640239</v>
+        <v>0.07365919891378139</v>
       </c>
       <c r="D6" t="n">
-        <v>4.791743994059949</v>
+        <v>4.766402587410179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003701474676229302</v>
+        <v>0.003795820717462414</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03377713985229062</v>
+        <v>0.03381755105790871</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1342710997442455</v>
+        <v>0.08078750848608282</v>
       </c>
       <c r="D7" t="n">
-        <v>9.125319718977368</v>
+        <v>8.909153928775766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005041692606922685</v>
+        <v>0.005090701014814683</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03590952817070106</v>
+        <v>0.03592731837390972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1099744245524297</v>
+        <v>0.06177868295994569</v>
       </c>
       <c r="D8" t="n">
-        <v>7.122514395541318</v>
+        <v>7.057440275780483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.006245071389338322</v>
+        <v>0.006424779018218716</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03977774212798599</v>
+        <v>0.03959659153728926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.113384484228474</v>
+        <v>0.06788866259334692</v>
       </c>
       <c r="D9" t="n">
-        <v>6.369461555859094</v>
+        <v>6.163105598652558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004179877007699622</v>
+        <v>0.004065625265778499</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0412911883953073</v>
+        <v>0.0409582598978552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1091219096334186</v>
+        <v>0.07298031228784793</v>
       </c>
       <c r="D10" t="n">
-        <v>9.878565402581485</v>
+        <v>10.07428309800519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005128805903224162</v>
+        <v>0.005247033430424695</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05471156420322856</v>
+        <v>0.05460620895293383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1044330775788576</v>
+        <v>0.05940257976917854</v>
       </c>
       <c r="D11" t="n">
-        <v>10.66750530934204</v>
+        <v>10.4070632819494</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k0.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00548512441723561</v>
+        <v>0.005485124417235596</v>
       </c>
       <c r="B2" t="n">
         <v>0.04841416267920626</v>
@@ -466,12 +466,12 @@
         <v>0.07841140529531568</v>
       </c>
       <c r="D2" t="n">
-        <v>8.826447496264088</v>
+        <v>8.826447496264111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006443831901713545</v>
+        <v>0.006443831901713498</v>
       </c>
       <c r="B3" t="n">
         <v>0.05041885114630709</v>
@@ -480,12 +480,12 @@
         <v>0.0756958587915818</v>
       </c>
       <c r="D3" t="n">
-        <v>7.824358536246065</v>
+        <v>7.824358536246122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003119504556738514</v>
+        <v>0.003119504556738519</v>
       </c>
       <c r="B4" t="n">
         <v>0.04409311639183262</v>
@@ -494,12 +494,12 @@
         <v>0.06381534283774609</v>
       </c>
       <c r="D4" t="n">
-        <v>14.13465362523227</v>
+        <v>14.13465362523224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003496801779185846</v>
+        <v>0.003496801779185854</v>
       </c>
       <c r="B5" t="n">
         <v>0.03806577340073061</v>
@@ -508,12 +508,12 @@
         <v>0.09063136456211812</v>
       </c>
       <c r="D5" t="n">
-        <v>10.88588253052004</v>
+        <v>10.88588253052002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.006436802728812224</v>
+        <v>0.006436802728812246</v>
       </c>
       <c r="B6" t="n">
         <v>0.03068039318125948</v>
@@ -522,12 +522,12 @@
         <v>0.07365919891378139</v>
       </c>
       <c r="D6" t="n">
-        <v>4.766402587410179</v>
+        <v>4.766402587410162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.003795820717462414</v>
+        <v>0.003795820717462416</v>
       </c>
       <c r="B7" t="n">
         <v>0.03381755105790871</v>
@@ -536,21 +536,21 @@
         <v>0.08078750848608282</v>
       </c>
       <c r="D7" t="n">
-        <v>8.909153928775766</v>
+        <v>8.909153928775758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005090701014814683</v>
+        <v>0.005090701014814671</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03592731837390972</v>
+        <v>0.03592731837390973</v>
       </c>
       <c r="C8" t="n">
         <v>0.06177868295994569</v>
       </c>
       <c r="D8" t="n">
-        <v>7.057440275780483</v>
+        <v>7.057440275780501</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +558,7 @@
         <v>0.006424779018218716</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03959659153728926</v>
+        <v>0.03959659153728925</v>
       </c>
       <c r="C9" t="n">
         <v>0.06788866259334692</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004065625265778499</v>
+        <v>0.004065625265778489</v>
       </c>
       <c r="B10" t="n">
         <v>0.0409582598978552</v>
@@ -578,21 +578,21 @@
         <v>0.07298031228784793</v>
       </c>
       <c r="D10" t="n">
-        <v>10.07428309800519</v>
+        <v>10.07428309800522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005247033430424695</v>
+        <v>0.005247033430424736</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05460620895293383</v>
+        <v>0.05460620895293384</v>
       </c>
       <c r="C11" t="n">
         <v>0.05940257976917854</v>
       </c>
       <c r="D11" t="n">
-        <v>10.4070632819494</v>
+        <v>10.40706328194932</v>
       </c>
     </row>
   </sheetData>
